--- a/tmpl/tmpl_scenario.xlsx
+++ b/tmpl/tmpl_scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanLV\SS1\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD70A6ED-70FA-4D55-B2FE-90376E1F4C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8928AD4A-B65C-4511-A02C-EBC442FC4041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C86982A8-6898-4754-AB0A-20FB43C0FAA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>r-pdc</t>
+  </si>
+  <si>
+    <t>r-rcp</t>
+  </si>
+  <si>
+    <t>r-experience</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1007,7 +1013,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>

--- a/tmpl/tmpl_scenario.xlsx
+++ b/tmpl/tmpl_scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanLV\SS1\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8928AD4A-B65C-4511-A02C-EBC442FC4041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D660D0-D256-4925-9068-963F2DE209D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C86982A8-6898-4754-AB0A-20FB43C0FAA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -295,6 +295,69 @@
   </si>
   <si>
     <t>r-experience</t>
+  </si>
+  <si>
+    <t>https://kakaku.com/</t>
+  </si>
+  <si>
+    <t>Check banner</t>
+  </si>
+  <si>
+    <t>Check Banner 1</t>
+  </si>
+  <si>
+    <t>Check Banner 2</t>
+  </si>
+  <si>
+    <t>Check Banner 3</t>
+  </si>
+  <si>
+    <t>Check Banner 4</t>
+  </si>
+  <si>
+    <t>Check Banner 5</t>
+  </si>
+  <si>
+    <t>Check Banner 6</t>
+  </si>
+  <si>
+    <t>Check Banner 7</t>
+  </si>
+  <si>
+    <t>Check Banner 8</t>
+  </si>
+  <si>
+    <t>Check Banner 9</t>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/a/span/div/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/div[2]/div/p/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[1]/div/div/p/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[2]/div/div/p/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[3]/div/div/p/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[4]/div/div/p/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[5]/div/div/p/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[6]/div/div/p/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[7]/div/div/p/img</t>
   </si>
 </sst>
 </file>
@@ -846,10 +909,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E17308-C8A0-46A5-8673-79BC4A78CB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -894,7 +957,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>51</v>
@@ -1423,7 +1486,9 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="10" t="s">
         <v>52</v>
@@ -1436,6 +1501,396 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_admin.jpg", "banner_admin.jpg")</f>
+        <v>banner_admin.jpg</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" ht="15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_GTune_P5.jpg", "banner_GTune_P5.jpg")</f>
+        <v>banner_GTune_P5.jpg</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_marumie.jpg", "banner_marumie.jpg")</f>
+        <v>banner_marumie.jpg</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" ht="15">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_feature.jpg", "banner_feature.jpg")</f>
+        <v>banner_feature.jpg</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" ht="15">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_camera.jpg", "banner_camera.jpg")</f>
+        <v>banner_camera.jpg</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" ht="15">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_houseware.png", "banner_houseware.png")</f>
+        <v>banner_houseware.png</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" ht="15">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_bag.png", "banner_bag.png")</f>
+        <v>banner_bag.png</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" ht="15">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_newlife.png", "banner_newlife.png")</f>
+        <v>banner_newlife.png</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" ht="15">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="7" t="str">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_jalcard.jpg", "banner_jalcard.jpg")</f>
+        <v>banner_jalcard.jpg</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
